--- a/biology/Botanique/Classification_de_Candolle/Classification_de_Candolle.xlsx
+++ b/biology/Botanique/Classification_de_Candolle/Classification_de_Candolle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification suivant le système de Candolle est chronologiquement l'une des premières classifications botaniques.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est publiée par Augustin Pyrame de Candolle (1778-1841) d'abord dans la deuxième édition (1819) de sa Théorie élémentaire de la botanique, ou exposition des principes de la classification naturelle et de l’art de décrire et d’étudier les végétaux. Candolle la met en pratique dans son vaste ouvrage qui paraît de 1824 à 1873, Prodromus Systematis Naturalis Regni Vegetabilis (le texte complet est disponible sur le site de Gallica).
 </t>
@@ -542,7 +556,9 @@
           <t>Classification des plantes vasculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La classification divise les plantes vasculaires en plusieurs groupes :
 classis I. DICOTYLEDONEÆ
@@ -578,7 +594,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des familles du Prodromus, arrangée selon la classification de Candolle.
 Ne pas oublier que sa classification est antérieure à la nomenclature botanique d'aujourd'hui, ainsi :
